--- a/Libraries/Vehicle/Driveline/Axle1/sm_car_data_Driveline_Axle1_None.xlsx
+++ b/Libraries/Vehicle/Driveline/Axle1/sm_car_data_Driveline_Axle1_None.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Driveline\Axle_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Driveline\Axle1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE70EE4-347C-4A0F-8641-F8695CEF8218}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D153D82-A6A9-407A-A346-193784F12B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="1236" windowWidth="18924" windowHeight="11364" xr2:uid="{63F140F1-6588-40C2-A567-D265B347A840}"/>
+    <workbookView xWindow="2568" yWindow="540" windowWidth="17280" windowHeight="10152" xr2:uid="{63F140F1-6588-40C2-A567-D265B347A840}"/>
   </bookViews>
   <sheets>
-    <sheet name="DrivelineAxle1_None" sheetId="1" r:id="rId1"/>
+    <sheet name="Axle1_None" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,13 +57,13 @@
     <t>class</t>
   </si>
   <si>
+    <t>Axle1_None</t>
+  </si>
+  <si>
+    <t>Driveline</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Axle1_None</t>
-  </si>
-  <si>
-    <t>Driveline</t>
   </si>
 </sst>
 </file>
@@ -488,13 +488,13 @@
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
@@ -533,7 +533,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -564,7 +564,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
